--- a/Registre d'Hores.xlsx
+++ b/Registre d'Hores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pruiz\Desktop\Jo\Educació\Universitat\5é any\1r Quadrimestre\Disseny de Serveis i Aplicacions\Projecte\Projecte-DSA-Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB86261-23C9-4762-804C-D82FA3AEEE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD39D31F-2942-46CD-81DB-676186D71B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{ADC46AAA-F34B-4A94-A1EC-1AAAB9D9DEE2}"/>
   </bookViews>
@@ -80,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,22 +417,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECC660B-557D-4A10-B301-873BED8CD41A}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="13.47265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
+        <v>45971</v>
+      </c>
+      <c r="C1">
         <v>2</v>
       </c>
     </row>

--- a/Registre d'Hores.xlsx
+++ b/Registre d'Hores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pruiz\Desktop\Jo\Educació\Universitat\5é any\1r Quadrimestre\Disseny de Serveis i Aplicacions\Projecte\Projecte-DSA-Backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenji\Desktop\DSA\Projecte-DSA-Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B12498-0B62-45BF-998C-B649FBBFAE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0341CF-C01A-4ABE-9BB2-0EF0C6580D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{ADC46AAA-F34B-4A94-A1EC-1AAAB9D9DEE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ADC46AAA-F34B-4A94-A1EC-1AAAB9D9DEE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Manel" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Web Registre</t>
   </si>
   <si>
     <t>Android Registre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Registre </t>
   </si>
 </sst>
 </file>
@@ -101,9 +104,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de l'Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Oficina">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -141,7 +144,7 @@
         <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Oficina">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
@@ -247,7 +250,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Oficina">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -417,19 +420,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECC660B-557D-4A10-B301-873BED8CD41A}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.47265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.47265625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -440,12 +443,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>45972</v>
       </c>
       <c r="C2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45974</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -461,12 +475,12 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.89453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +499,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -499,7 +513,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Registre d'Hores.xlsx
+++ b/Registre d'Hores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenji\Desktop\DSA\Projecte-DSA-Backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff820883c76edfac/Universitat/4.1/Disseny_de_Serveis_i_Aplicacions/Projecte-DSA-Backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0341CF-C01A-4ABE-9BB2-0EF0C6580D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{DC0341CF-C01A-4ABE-9BB2-0EF0C6580D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFB1E582-AC2F-4CC3-99FC-3095C9CAA4F8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ADC46AAA-F34B-4A94-A1EC-1AAAB9D9DEE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{ADC46AAA-F34B-4A94-A1EC-1AAAB9D9DEE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Manel" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Web Registre</t>
   </si>
@@ -49,12 +49,18 @@
   <si>
     <t xml:space="preserve">Web Registre </t>
   </si>
+  <si>
+    <t>Log in backend</t>
+  </si>
+  <si>
+    <t>Log in Android</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +107,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,17 +432,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECC660B-557D-4A10-B301-873BED8CD41A}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -443,7 +453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="B2" s="1">
         <v>45972</v>
       </c>
@@ -451,7 +461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -475,12 +485,12 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,12 +505,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6C9073-6D97-4660-ADBB-AA120D688B2B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45975</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45975</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -513,7 +552,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
